--- a/src/xlsx/3mL.xlsx
+++ b/src/xlsx/3mL.xlsx
@@ -587,8 +587,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -604,7 +612,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -612,12 +620,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,46 +1004,47 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="2" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1032,49 +1058,49 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>1</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="1" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1088,49 +1114,49 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>2</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1144,49 +1170,49 @@
       <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>3</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1200,49 +1226,49 @@
       <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>4</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1256,49 +1282,49 @@
       <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>5</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1312,49 +1338,49 @@
       <c r="G10" t="s">
         <v>26</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>6</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1368,49 +1394,49 @@
       <c r="G11" t="s">
         <v>28</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>7</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1424,49 +1450,49 @@
       <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <v>8</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1480,49 +1506,49 @@
       <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>9</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X13" t="s">
+      <c r="X13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AB13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
